--- a/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>52</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>10</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>76</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>32</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45635</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>52</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>110</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>40</v>

--- a/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -557,7 +558,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,299 @@
       </c>
       <c r="B5" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.348276675640614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.10497444634085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.334052503704056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>53.50575465154403</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.533173635785066</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.90506325052872</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.499803312561552</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.59088599254965</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.119018698198648</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.76541744928284</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.441823402412783</v>
+      </c>
+      <c r="D7" t="n">
+        <v>52.57108295679698</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.506519760359907</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.99621474322637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-8.121877963404321</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.44758206203306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-14.02335514208442</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.37107757001373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.72512607497063</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.29706292727251</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-14.14037799978814</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.98378513301252</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-13.69550124038839</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.85071396642169</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-14.68215864486471</v>
+      </c>
+      <c r="D14" t="n">
+        <v>44.14766909507512</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-14.53830136740547</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43.61046220013424</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.60132562284379</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43.66795149101696</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-15.4143203917323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.79724100858104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-15.6778996858061</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44.4839552913019</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-15.20896591693077</v>
+      </c>
+      <c r="D19" t="n">
+        <v>43.20780405583471</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
-        <v>-7.348276675640614</v>
-      </c>
-      <c r="D2" t="n">
-        <v>54.10497444634085</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.334052503704056</v>
-      </c>
-      <c r="D3" t="n">
-        <v>53.50575465154403</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.533173635785066</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.90506325052872</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>-5.499803312561552</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.59088599254965</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.119018698198648</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.76541744928284</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>22</v>
       </c>
-      <c r="C7" t="n">
-        <v>-7.441823402412783</v>
-      </c>
-      <c r="D7" t="n">
-        <v>52.57108295679698</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
-        <v>-8.506519760359907</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48.99621474322637</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>-8.121877963404321</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.44758206203306</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>-14.02335514208442</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46.37107757001373</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C11" t="n">
-        <v>-12.72512607497063</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.29706292727251</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
-        <v>-14.14037799978814</v>
-      </c>
-      <c r="D12" t="n">
-        <v>43.98378513301252</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>-13.69550124038839</v>
-      </c>
-      <c r="D13" t="n">
-        <v>46.85071396642169</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>15</v>
       </c>
-      <c r="C14" t="n">
-        <v>-14.68215864486471</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44.14766909507512</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
-        <v>-14.53830136740547</v>
-      </c>
-      <c r="D15" t="n">
-        <v>43.61046220013424</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>-16.60132562284379</v>
-      </c>
-      <c r="D16" t="n">
-        <v>43.66795149101696</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>14</v>
       </c>
-      <c r="C17" t="n">
-        <v>-15.4143203917323</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.79724100858104</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -866,12 +760,6 @@
       <c r="B18" t="n">
         <v>14</v>
       </c>
-      <c r="C18" t="n">
-        <v>-15.6778996858061</v>
-      </c>
-      <c r="D18" t="n">
-        <v>44.4839552913019</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -879,12 +767,6 @@
       </c>
       <c r="B19" t="n">
         <v>14</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-15.20896591693077</v>
-      </c>
-      <c r="D19" t="n">
-        <v>43.20780405583471</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
+++ b/po_analysis_by_asin/B0D6GYZWS6_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,22 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -542,7 +558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +610,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -605,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +654,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +662,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -694,7 +718,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -702,71 +726,87 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
